--- a/CLion/cppexercises/9.1_Laaneberegning/Assets/Renteberegning.xlsx
+++ b/CLion/cppexercises/9.1_Laaneberegning/Assets/Renteberegning.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\CPP-Learning\CLion\cppexercises\9.1_Laaneberegning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\CPP-Learning\CLion\cppexercises\9.1_Laaneberegning\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1144D094-094B-4167-864F-40345634169B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4A0ADE-8513-4FC3-AB55-5AFA7ED60CCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="15840" xr2:uid="{18E3E89E-692F-49DB-9FD0-C3C2968C172D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18E3E89E-692F-49DB-9FD0-C3C2968C172D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" ref="F2:F33" si="0">B$1*B$4/(1-(1+B$4)^-B$6)</f>
         <v>20758.355226353822</v>
       </c>
       <c r="G2" s="2">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G3" s="2">
@@ -570,23 +570,23 @@
         <v>3</v>
       </c>
       <c r="F4" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G4" s="2">
-        <f>I3*B$4</f>
+        <f t="shared" ref="G3:G34" si="1">I3*B$4</f>
         <v>7300.3788891232098</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H61" si="0">F4-G4</f>
+        <f t="shared" ref="H4:H61" si="2">F4-G4</f>
         <v>13457.976337230612</v>
       </c>
       <c r="I4" s="2">
-        <f t="shared" ref="I4:I61" si="1">I3-H4</f>
+        <f t="shared" ref="I4:I61" si="3">I3-H4</f>
         <v>959925.87554586399</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J24" si="2">I3-I4</f>
+        <f t="shared" ref="J4:J24" si="4">I3-I4</f>
         <v>13457.976337230648</v>
       </c>
     </row>
@@ -601,23 +601,23 @@
         <v>4</v>
       </c>
       <c r="F5" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G5" s="2">
-        <f>I4*B$4</f>
+        <f t="shared" si="1"/>
         <v>7199.4440665939801</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13558.911159759842</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>946366.96438610414</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13558.911159759853</v>
       </c>
     </row>
@@ -633,23 +633,23 @@
         <v>5</v>
       </c>
       <c r="F6" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G6" s="2">
-        <f>I5*B$4</f>
+        <f t="shared" si="1"/>
         <v>7097.7522328957812</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13660.60299345804</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>932706.3613926461</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13660.602993458044</v>
       </c>
     </row>
@@ -658,23 +658,23 @@
         <v>6</v>
       </c>
       <c r="F7" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G7" s="2">
-        <f>I6*B$4</f>
+        <f t="shared" si="1"/>
         <v>6995.2977104448455</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13763.057515908977</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>918943.30387673713</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13763.057515908964</v>
       </c>
     </row>
@@ -683,23 +683,23 @@
         <v>7</v>
       </c>
       <c r="F8" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G8" s="2">
-        <f>I7*B$4</f>
+        <f t="shared" si="1"/>
         <v>6892.0747790755286</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13866.280447278294</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>905077.02342945884</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13866.280447278288</v>
       </c>
     </row>
@@ -708,23 +708,23 @@
         <v>8</v>
       </c>
       <c r="F9" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G9" s="2">
-        <f>I8*B$4</f>
+        <f t="shared" si="1"/>
         <v>6788.0776757209414</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13970.27755063288</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>891106.74587882601</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13970.277550632833</v>
       </c>
     </row>
@@ -733,23 +733,23 @@
         <v>9</v>
       </c>
       <c r="F10" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G10" s="2">
-        <f>I9*B$4</f>
+        <f t="shared" si="1"/>
         <v>6683.3005940911944</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14075.054632262629</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>877031.69124656334</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14075.054632262676</v>
       </c>
     </row>
@@ -758,23 +758,23 @@
         <v>10</v>
       </c>
       <c r="F11" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G11" s="2">
-        <f>I10*B$4</f>
+        <f t="shared" si="1"/>
         <v>6577.7376843492248</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14180.617542004598</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>862851.07370455877</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14180.617542004562</v>
       </c>
     </row>
@@ -783,23 +783,23 @@
         <v>11</v>
       </c>
       <c r="F12" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G12" s="2">
-        <f>I11*B$4</f>
+        <f t="shared" si="1"/>
         <v>6471.3830527841901</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14286.972173569633</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>848564.10153098917</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14286.972173569608</v>
       </c>
     </row>
@@ -808,23 +808,23 @@
         <v>12</v>
       </c>
       <c r="F13" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G13" s="2">
-        <f>I12*B$4</f>
+        <f t="shared" si="1"/>
         <v>6364.2307614824185</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14394.124464871404</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>834169.9770661178</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14394.124464871362</v>
       </c>
     </row>
@@ -833,23 +833,23 @@
         <v>13</v>
       </c>
       <c r="F14" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G14" s="2">
-        <f>I13*B$4</f>
+        <f t="shared" si="1"/>
         <v>6256.2748279958832</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14502.080398357939</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>819667.89666775987</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14502.080398357939</v>
       </c>
     </row>
@@ -858,23 +858,23 @@
         <v>14</v>
       </c>
       <c r="F15" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G15" s="2">
-        <f>I14*B$4</f>
+        <f t="shared" si="1"/>
         <v>6147.5092250081989</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14610.846001345624</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>805057.0506664142</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14610.846001345664</v>
       </c>
     </row>
@@ -883,23 +883,23 @@
         <v>15</v>
       </c>
       <c r="F16" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G16" s="2">
-        <f>I15*B$4</f>
+        <f t="shared" si="1"/>
         <v>6037.9278799981066</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14720.427346355715</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>790336.62332005845</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14720.427346355747</v>
       </c>
     </row>
@@ -908,23 +908,23 @@
         <v>16</v>
       </c>
       <c r="F17" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G17" s="2">
-        <f>I16*B$4</f>
+        <f t="shared" si="1"/>
         <v>5927.5246749004382</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14830.830551453384</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>775505.79276860505</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14830.8305514534</v>
       </c>
     </row>
@@ -933,23 +933,23 @@
         <v>17</v>
       </c>
       <c r="F18" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G18" s="2">
-        <f>I17*B$4</f>
+        <f t="shared" si="1"/>
         <v>5816.2934457645379</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14942.061780589283</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>760563.73098801577</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14942.061780589283</v>
       </c>
     </row>
@@ -958,23 +958,23 @@
         <v>18</v>
       </c>
       <c r="F19" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G19" s="2">
-        <f>I18*B$4</f>
+        <f t="shared" si="1"/>
         <v>5704.2279824101179</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15054.127243943705</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>745509.60374407202</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15054.127243943745</v>
       </c>
     </row>
@@ -983,23 +983,23 @@
         <v>19</v>
       </c>
       <c r="F20" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G20" s="2">
-        <f>I19*B$4</f>
+        <f t="shared" si="1"/>
         <v>5591.3220280805399</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15167.033198273282</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>730342.57054579875</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15167.033198273275</v>
       </c>
     </row>
@@ -1008,23 +1008,23 @@
         <v>20</v>
       </c>
       <c r="F21" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G21" s="2">
-        <f>I20*B$4</f>
+        <f t="shared" si="1"/>
         <v>5477.56927909349</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15280.785947260332</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>715061.78459853842</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15280.78594726033</v>
       </c>
     </row>
@@ -1033,23 +1033,23 @@
         <v>21</v>
       </c>
       <c r="F22" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G22" s="2">
-        <f>I21*B$4</f>
+        <f t="shared" si="1"/>
         <v>5362.9633844890377</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15395.391841864785</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>699666.39275667362</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15395.391841864795</v>
       </c>
     </row>
@@ -1058,23 +1058,23 @@
         <v>22</v>
       </c>
       <c r="F23" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G23" s="2">
-        <f>I22*B$4</f>
+        <f t="shared" si="1"/>
         <v>5247.4979456750516</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15510.857280678771</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>684155.53547599481</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15510.857280678814</v>
       </c>
     </row>
@@ -1083,23 +1083,23 @@
         <v>23</v>
       </c>
       <c r="F24" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G24" s="2">
-        <f>I23*B$4</f>
+        <f t="shared" si="1"/>
         <v>5131.1665160699613</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15627.188710283861</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>668528.34676571097</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15627.188710283837</v>
       </c>
     </row>
@@ -1108,19 +1108,19 @@
         <v>24</v>
       </c>
       <c r="F25" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G25" s="2">
-        <f>I24*B$4</f>
+        <f t="shared" si="1"/>
         <v>5013.9626007428324</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15744.39262561099</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>652783.95414009993</v>
       </c>
     </row>
@@ -1129,19 +1129,19 @@
         <v>25</v>
       </c>
       <c r="F26" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G26" s="2">
-        <f>I25*B$4</f>
+        <f t="shared" si="1"/>
         <v>4895.879656050749</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15862.475570303073</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>636921.47856979689</v>
       </c>
     </row>
@@ -1150,19 +1150,19 @@
         <v>26</v>
       </c>
       <c r="F27" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G27" s="2">
-        <f>I26*B$4</f>
+        <f t="shared" si="1"/>
         <v>4776.9110892734761</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15981.444137080347</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>620940.03443271655</v>
       </c>
     </row>
@@ -1171,19 +1171,19 @@
         <v>27</v>
       </c>
       <c r="F28" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G28" s="2">
-        <f>I27*B$4</f>
+        <f t="shared" si="1"/>
         <v>4657.0502582453737</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16101.304968108449</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>604838.72946460813</v>
       </c>
     </row>
@@ -1192,19 +1192,19 @@
         <v>28</v>
       </c>
       <c r="F29" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G29" s="2">
-        <f>I28*B$4</f>
+        <f t="shared" si="1"/>
         <v>4536.2904709845607</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16222.064755369262</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>588616.66470923892</v>
       </c>
     </row>
@@ -1213,19 +1213,19 @@
         <v>29</v>
       </c>
       <c r="F30" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G30" s="2">
-        <f>I29*B$4</f>
+        <f t="shared" si="1"/>
         <v>4414.6249853192921</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16343.730241034529</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>572272.93446820439</v>
       </c>
     </row>
@@ -1234,19 +1234,19 @@
         <v>30</v>
       </c>
       <c r="F31" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G31" s="2">
-        <f>I30*B$4</f>
+        <f t="shared" si="1"/>
         <v>4292.047008511533</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16466.308217842288</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>555806.62625036214</v>
       </c>
     </row>
@@ -1255,19 +1255,19 @@
         <v>31</v>
       </c>
       <c r="F32" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G32" s="2">
-        <f>I31*B$4</f>
+        <f t="shared" si="1"/>
         <v>4168.5496968777161</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16589.805529476107</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>539216.820720886</v>
       </c>
     </row>
@@ -1276,19 +1276,19 @@
         <v>32</v>
       </c>
       <c r="F33" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="0"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G33" s="2">
-        <f>I32*B$4</f>
+        <f t="shared" si="1"/>
         <v>4044.126155406645</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16714.229070947178</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>522502.59164993884</v>
       </c>
     </row>
@@ -1297,19 +1297,19 @@
         <v>33</v>
       </c>
       <c r="F34" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" ref="F34:F61" si="5">B$1*B$4/(1-(1+B$4)^-B$6)</f>
         <v>20758.355226353822</v>
       </c>
       <c r="G34" s="2">
-        <f>I33*B$4</f>
+        <f t="shared" si="1"/>
         <v>3918.7694373745412</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16839.585788979282</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>505663.00586095953</v>
       </c>
     </row>
@@ -1318,19 +1318,19 @@
         <v>34</v>
       </c>
       <c r="F35" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G35" s="2">
-        <f>I34*B$4</f>
+        <f t="shared" ref="G35:G61" si="6">I34*B$4</f>
         <v>3792.4725439571962</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16965.882682396626</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>488697.12317856291</v>
       </c>
     </row>
@@ -1339,19 +1339,19 @@
         <v>35</v>
       </c>
       <c r="F36" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G36" s="2">
-        <f>I35*B$4</f>
+        <f t="shared" si="6"/>
         <v>3665.2284238392217</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17093.126802514602</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>471603.99637604831</v>
       </c>
     </row>
@@ -1360,19 +1360,19 @@
         <v>36</v>
       </c>
       <c r="F37" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G37" s="2">
-        <f>I36*B$4</f>
+        <f t="shared" si="6"/>
         <v>3537.0299728203622</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17221.325253533461</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>454382.67112251488</v>
       </c>
     </row>
@@ -1381,19 +1381,19 @@
         <v>37</v>
       </c>
       <c r="F38" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G38" s="2">
-        <f>I37*B$4</f>
+        <f t="shared" si="6"/>
         <v>3407.8700334188616</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17350.485192934961</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>437032.18592957989</v>
       </c>
     </row>
@@ -1402,19 +1402,19 @@
         <v>38</v>
       </c>
       <c r="F39" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G39" s="2">
-        <f>I38*B$4</f>
+        <f t="shared" si="6"/>
         <v>3277.7413944718492</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17480.613831881972</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>419551.57209769794</v>
       </c>
     </row>
@@ -1423,19 +1423,19 @@
         <v>39</v>
       </c>
       <c r="F40" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G40" s="2">
-        <f>I39*B$4</f>
+        <f t="shared" si="6"/>
         <v>3146.6367907327344</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17611.718435621089</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>401939.85366207687</v>
       </c>
     </row>
@@ -1444,19 +1444,19 @@
         <v>40</v>
       </c>
       <c r="F41" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G41" s="2">
-        <f>I40*B$4</f>
+        <f t="shared" si="6"/>
         <v>3014.5489024655762</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17743.806323888246</v>
       </c>
       <c r="I41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>384196.04733818863</v>
       </c>
     </row>
@@ -1465,19 +1465,19 @@
         <v>41</v>
       </c>
       <c r="F42" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G42" s="2">
-        <f>I41*B$4</f>
+        <f t="shared" si="6"/>
         <v>2881.4703550364147</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17876.884871317408</v>
       </c>
       <c r="I42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>366319.1624668712</v>
       </c>
     </row>
@@ -1486,19 +1486,19 @@
         <v>42</v>
       </c>
       <c r="F43" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G43" s="2">
-        <f>I42*B$4</f>
+        <f t="shared" si="6"/>
         <v>2747.3937185015338</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18010.961507852287</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>348308.2009590189</v>
       </c>
     </row>
@@ -1507,19 +1507,19 @@
         <v>43</v>
       </c>
       <c r="F44" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G44" s="2">
-        <f>I43*B$4</f>
+        <f t="shared" si="6"/>
         <v>2612.3115071926418</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18146.043719161182</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>330162.15723985771</v>
       </c>
     </row>
@@ -1528,19 +1528,19 @@
         <v>44</v>
       </c>
       <c r="F45" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G45" s="2">
-        <f>I44*B$4</f>
+        <f t="shared" si="6"/>
         <v>2476.2161792989327</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18282.13904705489</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>311880.01819280285</v>
       </c>
     </row>
@@ -1549,19 +1549,19 @@
         <v>45</v>
       </c>
       <c r="F46" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G46" s="2">
-        <f>I45*B$4</f>
+        <f t="shared" si="6"/>
         <v>2339.1001364460212</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18419.255089907801</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>293460.76310289506</v>
       </c>
     </row>
@@ -1570,19 +1570,19 @@
         <v>46</v>
       </c>
       <c r="F47" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G47" s="2">
-        <f>I46*B$4</f>
+        <f t="shared" si="6"/>
         <v>2200.9557232717129</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18557.39950308211</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>274903.36359981296</v>
       </c>
     </row>
@@ -1591,19 +1591,19 @@
         <v>47</v>
       </c>
       <c r="F48" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G48" s="2">
-        <f>I47*B$4</f>
+        <f t="shared" si="6"/>
         <v>2061.7752269985972</v>
       </c>
       <c r="H48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18696.579999355225</v>
       </c>
       <c r="I48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>256206.78360045774</v>
       </c>
     </row>
@@ -1612,19 +1612,19 @@
         <v>48</v>
       </c>
       <c r="F49" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G49" s="2">
-        <f>I48*B$4</f>
+        <f t="shared" si="6"/>
         <v>1921.550877003433</v>
       </c>
       <c r="H49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18836.80434935039</v>
       </c>
       <c r="I49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>237369.97925110735</v>
       </c>
     </row>
@@ -1633,19 +1633,19 @@
         <v>49</v>
       </c>
       <c r="F50" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G50" s="2">
-        <f>I49*B$4</f>
+        <f t="shared" si="6"/>
         <v>1780.274844383305</v>
       </c>
       <c r="H50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18978.080381970518</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>218391.89886913681</v>
       </c>
     </row>
@@ -1654,19 +1654,19 @@
         <v>50</v>
       </c>
       <c r="F51" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G51" s="2">
-        <f>I50*B$4</f>
+        <f t="shared" si="6"/>
         <v>1637.9392415185259</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19120.415984835297</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>199271.48288430151</v>
       </c>
     </row>
@@ -1675,19 +1675,19 @@
         <v>51</v>
       </c>
       <c r="F52" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G52" s="2">
-        <f>I51*B$4</f>
+        <f t="shared" si="6"/>
         <v>1494.5361216322613</v>
       </c>
       <c r="H52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19263.819104721562</v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>180007.66377957995</v>
       </c>
     </row>
@@ -1696,19 +1696,19 @@
         <v>52</v>
       </c>
       <c r="F53" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G53" s="2">
-        <f>I52*B$4</f>
+        <f t="shared" si="6"/>
         <v>1350.0574783468496</v>
       </c>
       <c r="H53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19408.297748006971</v>
       </c>
       <c r="I53" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>160599.36603157298</v>
       </c>
     </row>
@@ -1717,19 +1717,19 @@
         <v>53</v>
       </c>
       <c r="F54" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G54" s="2">
-        <f>I53*B$4</f>
+        <f t="shared" si="6"/>
         <v>1204.4952452367972</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19553.859981117024</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>141045.50605045597</v>
       </c>
     </row>
@@ -1738,19 +1738,19 @@
         <v>54</v>
       </c>
       <c r="F55" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G55" s="2">
-        <f>I54*B$4</f>
+        <f t="shared" si="6"/>
         <v>1057.8412953784198</v>
       </c>
       <c r="H55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19700.513930975401</v>
       </c>
       <c r="I55" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>121344.99211948056</v>
       </c>
     </row>
@@ -1759,19 +1759,19 @@
         <v>55</v>
       </c>
       <c r="F56" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G56" s="2">
-        <f>I55*B$4</f>
+        <f t="shared" si="6"/>
         <v>910.08744089610423</v>
       </c>
       <c r="H56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19848.26778545772</v>
       </c>
       <c r="I56" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>101496.72433402285</v>
       </c>
     </row>
@@ -1780,19 +1780,19 @@
         <v>56</v>
       </c>
       <c r="F57" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G57" s="2">
-        <f>I56*B$4</f>
+        <f t="shared" si="6"/>
         <v>761.22543250517128</v>
       </c>
       <c r="H57" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19997.12979384865</v>
       </c>
       <c r="I57" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81499.594540174192</v>
       </c>
     </row>
@@ -1801,19 +1801,19 @@
         <v>57</v>
       </c>
       <c r="F58" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G58" s="2">
-        <f>I57*B$4</f>
+        <f t="shared" si="6"/>
         <v>611.24695905130636</v>
       </c>
       <c r="H58" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20147.108267302516</v>
       </c>
       <c r="I58" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>61352.486272871676</v>
       </c>
     </row>
@@ -1822,19 +1822,19 @@
         <v>58</v>
       </c>
       <c r="F59" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G59" s="2">
-        <f>I58*B$4</f>
+        <f t="shared" si="6"/>
         <v>460.14364704653758</v>
       </c>
       <c r="H59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20298.211579307284</v>
       </c>
       <c r="I59" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41054.274693564395</v>
       </c>
     </row>
@@ -1843,19 +1843,19 @@
         <v>59</v>
       </c>
       <c r="F60" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G60" s="2">
-        <f>I59*B$4</f>
+        <f t="shared" si="6"/>
         <v>307.90706020173297</v>
       </c>
       <c r="H60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20450.448166152088</v>
       </c>
       <c r="I60" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20603.826527412308</v>
       </c>
     </row>
@@ -1864,19 +1864,19 @@
         <v>60</v>
       </c>
       <c r="F61" s="2">
-        <f>B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" si="5"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G61" s="2">
-        <f>I60*B$4</f>
+        <f t="shared" si="6"/>
         <v>154.52869895559229</v>
       </c>
       <c r="H61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20603.826527398229</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.4078977983444929E-8</v>
       </c>
     </row>
@@ -1890,9 +1890,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2054,19 +2057,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64176B53-8F88-489E-9E50-82FD3C43066D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66699EEE-DA06-4892-8225-A3029FB87751}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2090,9 +2089,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66699EEE-DA06-4892-8225-A3029FB87751}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64176B53-8F88-489E-9E50-82FD3C43066D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CLion/cppexercises/9.1_Laaneberegning/Assets/Renteberegning.xlsx
+++ b/CLion/cppexercises/9.1_Laaneberegning/Assets/Renteberegning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\CPP-Learning\CLion\cppexercises\9.1_Laaneberegning\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4A0ADE-8513-4FC3-AB55-5AFA7ED60CCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B43E37-0731-4726-85EF-5C1F11B284A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18E3E89E-692F-49DB-9FD0-C3C2968C172D}"/>
+    <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="15840" xr2:uid="{18E3E89E-692F-49DB-9FD0-C3C2968C172D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D30B933-58E4-490D-B249-829C32543B81}">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -456,11 +456,12 @@
     <col min="2" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="8" width="9.140625" style="1"/>
     <col min="9" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -526,8 +527,12 @@
         <f>SUM(G2:G61)</f>
         <v>245501.31358124348</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="2">
+        <f>SUM(F2:F61)</f>
+        <v>1245501.3135812292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -558,7 +563,7 @@
         <v>13357.7928905515</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -574,7 +579,7 @@
         <v>20758.355226353822</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G3:G34" si="1">I3*B$4</f>
+        <f t="shared" ref="G4:G34" si="1">I3*B$4</f>
         <v>7300.3788891232098</v>
       </c>
       <c r="H4" s="2">
@@ -590,7 +595,7 @@
         <v>13457.976337230648</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -621,7 +626,7 @@
         <v>13558.911159759853</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -653,7 +658,7 @@
         <v>13660.602993458044</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="1">
         <v>6</v>
       </c>
@@ -678,7 +683,7 @@
         <v>13763.057515908964</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
         <v>7</v>
       </c>
@@ -703,7 +708,7 @@
         <v>13866.280447278288</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="1">
         <v>8</v>
       </c>
@@ -728,7 +733,7 @@
         <v>13970.277550632833</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="1">
         <v>9</v>
       </c>
@@ -753,7 +758,7 @@
         <v>14075.054632262676</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
         <v>10</v>
       </c>
@@ -778,7 +783,7 @@
         <v>14180.617542004562</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="1">
         <v>11</v>
       </c>
@@ -803,7 +808,7 @@
         <v>14286.972173569608</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="1">
         <v>12</v>
       </c>
@@ -828,7 +833,7 @@
         <v>14394.124464871362</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="1">
         <v>13</v>
       </c>
@@ -853,7 +858,7 @@
         <v>14502.080398357939</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="1">
         <v>14</v>
       </c>
@@ -878,7 +883,7 @@
         <v>14610.846001345664</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="1">
         <v>15</v>
       </c>
@@ -1890,12 +1895,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2057,15 +2059,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66699EEE-DA06-4892-8225-A3029FB87751}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64176B53-8F88-489E-9E50-82FD3C43066D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2089,10 +2095,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64176B53-8F88-489E-9E50-82FD3C43066D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66699EEE-DA06-4892-8225-A3029FB87751}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CLion/cppexercises/9.1_Laaneberegning/Assets/Renteberegning.xlsx
+++ b/CLion/cppexercises/9.1_Laaneberegning/Assets/Renteberegning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\CPP-Learning\CLion\cppexercises\9.1_Laaneberegning\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B43E37-0731-4726-85EF-5C1F11B284A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D8485C-8661-42A5-90DB-A5C82AED1200}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="15840" xr2:uid="{18E3E89E-692F-49DB-9FD0-C3C2968C172D}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1895,9 +1895,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2059,19 +2062,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64176B53-8F88-489E-9E50-82FD3C43066D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66699EEE-DA06-4892-8225-A3029FB87751}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2095,9 +2094,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66699EEE-DA06-4892-8225-A3029FB87751}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64176B53-8F88-489E-9E50-82FD3C43066D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CLion/cppexercises/9.1_Laaneberegning/Assets/Renteberegning.xlsx
+++ b/CLion/cppexercises/9.1_Laaneberegning/Assets/Renteberegning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\CPP-Learning\CLion\cppexercises\9.1_Laaneberegning\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D8485C-8661-42A5-90DB-A5C82AED1200}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A21471-F5A7-4D93-96EA-F98E1145100D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="15840" xr2:uid="{18E3E89E-692F-49DB-9FD0-C3C2968C172D}"/>
   </bookViews>
@@ -444,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D30B933-58E4-490D-B249-829C32543B81}">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -457,11 +457,11 @@
     <col min="6" max="8" width="9.140625" style="1"/>
     <col min="9" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,14 +483,14 @@
       <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -519,20 +519,20 @@
         <f>B1-H2</f>
         <v>986741.64477364614</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <f>B1-I2</f>
         <v>13258.355226353859</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <f>SUM(G2:G61)</f>
         <v>245501.31358124348</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <f>SUM(F2:F61)</f>
         <v>1245501.3135812292</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -558,12 +558,12 @@
         <f>I2-H3</f>
         <v>973383.85188309464</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <f>I2-I3</f>
         <v>13357.7928905515</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -590,12 +590,12 @@
         <f t="shared" ref="I4:I61" si="3">I3-H4</f>
         <v>959925.87554586399</v>
       </c>
-      <c r="J4" s="2">
-        <f t="shared" ref="J4:J24" si="4">I3-I4</f>
+      <c r="K4" s="2">
+        <f>I3-I4</f>
         <v>13457.976337230648</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -621,12 +621,12 @@
         <f t="shared" si="3"/>
         <v>946366.96438610414</v>
       </c>
-      <c r="J5" s="2">
-        <f t="shared" si="4"/>
+      <c r="K5" s="2">
+        <f>I4-I5</f>
         <v>13558.911159759853</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -653,12 +653,12 @@
         <f t="shared" si="3"/>
         <v>932706.3613926461</v>
       </c>
-      <c r="J6" s="2">
-        <f t="shared" si="4"/>
+      <c r="K6" s="2">
+        <f>I5-I6</f>
         <v>13660.602993458044</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="1">
         <v>6</v>
       </c>
@@ -678,12 +678,12 @@
         <f t="shared" si="3"/>
         <v>918943.30387673713</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" si="4"/>
+      <c r="K7" s="2">
+        <f>I6-I7</f>
         <v>13763.057515908964</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" s="1">
         <v>7</v>
       </c>
@@ -703,12 +703,12 @@
         <f t="shared" si="3"/>
         <v>905077.02342945884</v>
       </c>
-      <c r="J8" s="2">
-        <f t="shared" si="4"/>
+      <c r="K8" s="2">
+        <f>I7-I8</f>
         <v>13866.280447278288</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="1">
         <v>8</v>
       </c>
@@ -728,12 +728,12 @@
         <f t="shared" si="3"/>
         <v>891106.74587882601</v>
       </c>
-      <c r="J9" s="2">
-        <f t="shared" si="4"/>
+      <c r="K9" s="2">
+        <f>I8-I9</f>
         <v>13970.277550632833</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="1">
         <v>9</v>
       </c>
@@ -753,12 +753,12 @@
         <f t="shared" si="3"/>
         <v>877031.69124656334</v>
       </c>
-      <c r="J10" s="2">
-        <f t="shared" si="4"/>
+      <c r="K10" s="2">
+        <f>I9-I10</f>
         <v>14075.054632262676</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
         <v>10</v>
       </c>
@@ -778,12 +778,12 @@
         <f t="shared" si="3"/>
         <v>862851.07370455877</v>
       </c>
-      <c r="J11" s="2">
-        <f t="shared" si="4"/>
+      <c r="K11" s="2">
+        <f>I10-I11</f>
         <v>14180.617542004562</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="1">
         <v>11</v>
       </c>
@@ -803,12 +803,12 @@
         <f t="shared" si="3"/>
         <v>848564.10153098917</v>
       </c>
-      <c r="J12" s="2">
-        <f t="shared" si="4"/>
+      <c r="K12" s="2">
+        <f>I11-I12</f>
         <v>14286.972173569608</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="1">
         <v>12</v>
       </c>
@@ -828,12 +828,12 @@
         <f t="shared" si="3"/>
         <v>834169.9770661178</v>
       </c>
-      <c r="J13" s="2">
-        <f t="shared" si="4"/>
+      <c r="K13" s="2">
+        <f>I12-I13</f>
         <v>14394.124464871362</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="1">
         <v>13</v>
       </c>
@@ -853,12 +853,12 @@
         <f t="shared" si="3"/>
         <v>819667.89666775987</v>
       </c>
-      <c r="J14" s="2">
-        <f t="shared" si="4"/>
+      <c r="K14" s="2">
+        <f>I13-I14</f>
         <v>14502.080398357939</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="1">
         <v>14</v>
       </c>
@@ -878,12 +878,12 @@
         <f t="shared" si="3"/>
         <v>805057.0506664142</v>
       </c>
-      <c r="J15" s="2">
-        <f t="shared" si="4"/>
+      <c r="K15" s="2">
+        <f>I14-I15</f>
         <v>14610.846001345664</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="1">
         <v>15</v>
       </c>
@@ -903,12 +903,12 @@
         <f t="shared" si="3"/>
         <v>790336.62332005845</v>
       </c>
-      <c r="J16" s="2">
-        <f t="shared" si="4"/>
+      <c r="K16" s="2">
+        <f>I15-I16</f>
         <v>14720.427346355747</v>
       </c>
     </row>
-    <row r="17" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="1">
         <v>16</v>
       </c>
@@ -928,12 +928,12 @@
         <f t="shared" si="3"/>
         <v>775505.79276860505</v>
       </c>
-      <c r="J17" s="2">
-        <f t="shared" si="4"/>
+      <c r="K17" s="2">
+        <f>I16-I17</f>
         <v>14830.8305514534</v>
       </c>
     </row>
-    <row r="18" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="1">
         <v>17</v>
       </c>
@@ -953,12 +953,12 @@
         <f t="shared" si="3"/>
         <v>760563.73098801577</v>
       </c>
-      <c r="J18" s="2">
-        <f t="shared" si="4"/>
+      <c r="K18" s="2">
+        <f>I17-I18</f>
         <v>14942.061780589283</v>
       </c>
     </row>
-    <row r="19" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="1">
         <v>18</v>
       </c>
@@ -978,12 +978,12 @@
         <f t="shared" si="3"/>
         <v>745509.60374407202</v>
       </c>
-      <c r="J19" s="2">
-        <f t="shared" si="4"/>
+      <c r="K19" s="2">
+        <f>I18-I19</f>
         <v>15054.127243943745</v>
       </c>
     </row>
-    <row r="20" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
         <v>19</v>
       </c>
@@ -1003,12 +1003,12 @@
         <f t="shared" si="3"/>
         <v>730342.57054579875</v>
       </c>
-      <c r="J20" s="2">
-        <f t="shared" si="4"/>
+      <c r="K20" s="2">
+        <f>I19-I20</f>
         <v>15167.033198273275</v>
       </c>
     </row>
-    <row r="21" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="1">
         <v>20</v>
       </c>
@@ -1028,12 +1028,12 @@
         <f t="shared" si="3"/>
         <v>715061.78459853842</v>
       </c>
-      <c r="J21" s="2">
-        <f t="shared" si="4"/>
+      <c r="K21" s="2">
+        <f>I20-I21</f>
         <v>15280.78594726033</v>
       </c>
     </row>
-    <row r="22" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="1">
         <v>21</v>
       </c>
@@ -1053,12 +1053,12 @@
         <f t="shared" si="3"/>
         <v>699666.39275667362</v>
       </c>
-      <c r="J22" s="2">
-        <f t="shared" si="4"/>
+      <c r="K22" s="2">
+        <f>I21-I22</f>
         <v>15395.391841864795</v>
       </c>
     </row>
-    <row r="23" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E23" s="1">
         <v>22</v>
       </c>
@@ -1078,12 +1078,12 @@
         <f t="shared" si="3"/>
         <v>684155.53547599481</v>
       </c>
-      <c r="J23" s="2">
-        <f t="shared" si="4"/>
+      <c r="K23" s="2">
+        <f>I22-I23</f>
         <v>15510.857280678814</v>
       </c>
     </row>
-    <row r="24" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" s="1">
         <v>23</v>
       </c>
@@ -1103,12 +1103,12 @@
         <f t="shared" si="3"/>
         <v>668528.34676571097</v>
       </c>
-      <c r="J24" s="2">
-        <f t="shared" si="4"/>
+      <c r="K24" s="2">
+        <f>I23-I24</f>
         <v>15627.188710283837</v>
       </c>
     </row>
-    <row r="25" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="1">
         <v>24</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>652783.95414009993</v>
       </c>
     </row>
-    <row r="26" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="1">
         <v>25</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>636921.47856979689</v>
       </c>
     </row>
-    <row r="27" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="1">
         <v>26</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>620940.03443271655</v>
       </c>
     </row>
-    <row r="28" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="1">
         <v>27</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>604838.72946460813</v>
       </c>
     </row>
-    <row r="29" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="1">
         <v>28</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>588616.66470923892</v>
       </c>
     </row>
-    <row r="30" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="1">
         <v>29</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>572272.93446820439</v>
       </c>
     </row>
-    <row r="31" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="1">
         <v>30</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>555806.62625036214</v>
       </c>
     </row>
-    <row r="32" spans="5:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="1">
         <v>31</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" ref="F34:F61" si="5">B$1*B$4/(1-(1+B$4)^-B$6)</f>
+        <f t="shared" ref="F34:F61" si="4">B$1*B$4/(1-(1+B$4)^-B$6)</f>
         <v>20758.355226353822</v>
       </c>
       <c r="G34" s="2">
@@ -1323,11 +1323,11 @@
         <v>34</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" ref="G35:G61" si="6">I34*B$4</f>
+        <f t="shared" ref="G35:G61" si="5">I34*B$4</f>
         <v>3792.4725439571962</v>
       </c>
       <c r="H35" s="2">
@@ -1344,11 +1344,11 @@
         <v>35</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3665.2284238392217</v>
       </c>
       <c r="H36" s="2">
@@ -1365,11 +1365,11 @@
         <v>36</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3537.0299728203622</v>
       </c>
       <c r="H37" s="2">
@@ -1386,11 +1386,11 @@
         <v>37</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3407.8700334188616</v>
       </c>
       <c r="H38" s="2">
@@ -1407,11 +1407,11 @@
         <v>38</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3277.7413944718492</v>
       </c>
       <c r="H39" s="2">
@@ -1428,11 +1428,11 @@
         <v>39</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3146.6367907327344</v>
       </c>
       <c r="H40" s="2">
@@ -1449,11 +1449,11 @@
         <v>40</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3014.5489024655762</v>
       </c>
       <c r="H41" s="2">
@@ -1470,11 +1470,11 @@
         <v>41</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2881.4703550364147</v>
       </c>
       <c r="H42" s="2">
@@ -1491,11 +1491,11 @@
         <v>42</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2747.3937185015338</v>
       </c>
       <c r="H43" s="2">
@@ -1512,11 +1512,11 @@
         <v>43</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2612.3115071926418</v>
       </c>
       <c r="H44" s="2">
@@ -1533,11 +1533,11 @@
         <v>44</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2476.2161792989327</v>
       </c>
       <c r="H45" s="2">
@@ -1554,11 +1554,11 @@
         <v>45</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2339.1001364460212</v>
       </c>
       <c r="H46" s="2">
@@ -1575,11 +1575,11 @@
         <v>46</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2200.9557232717129</v>
       </c>
       <c r="H47" s="2">
@@ -1596,11 +1596,11 @@
         <v>47</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2061.7752269985972</v>
       </c>
       <c r="H48" s="2">
@@ -1617,11 +1617,11 @@
         <v>48</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1921.550877003433</v>
       </c>
       <c r="H49" s="2">
@@ -1638,11 +1638,11 @@
         <v>49</v>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1780.274844383305</v>
       </c>
       <c r="H50" s="2">
@@ -1659,11 +1659,11 @@
         <v>50</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1637.9392415185259</v>
       </c>
       <c r="H51" s="2">
@@ -1680,11 +1680,11 @@
         <v>51</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1494.5361216322613</v>
       </c>
       <c r="H52" s="2">
@@ -1701,11 +1701,11 @@
         <v>52</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1350.0574783468496</v>
       </c>
       <c r="H53" s="2">
@@ -1722,11 +1722,11 @@
         <v>53</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1204.4952452367972</v>
       </c>
       <c r="H54" s="2">
@@ -1743,11 +1743,11 @@
         <v>54</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1057.8412953784198</v>
       </c>
       <c r="H55" s="2">
@@ -1764,11 +1764,11 @@
         <v>55</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>910.08744089610423</v>
       </c>
       <c r="H56" s="2">
@@ -1785,11 +1785,11 @@
         <v>56</v>
       </c>
       <c r="F57" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>761.22543250517128</v>
       </c>
       <c r="H57" s="2">
@@ -1806,11 +1806,11 @@
         <v>57</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>611.24695905130636</v>
       </c>
       <c r="H58" s="2">
@@ -1827,11 +1827,11 @@
         <v>58</v>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>460.14364704653758</v>
       </c>
       <c r="H59" s="2">
@@ -1848,11 +1848,11 @@
         <v>59</v>
       </c>
       <c r="F60" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>307.90706020173297</v>
       </c>
       <c r="H60" s="2">
@@ -1869,11 +1869,11 @@
         <v>60</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20758.355226353822</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>154.52869895559229</v>
       </c>
       <c r="H61" s="2">
@@ -1895,12 +1895,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2062,15 +2059,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66699EEE-DA06-4892-8225-A3029FB87751}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64176B53-8F88-489E-9E50-82FD3C43066D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2094,10 +2095,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64176B53-8F88-489E-9E50-82FD3C43066D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66699EEE-DA06-4892-8225-A3029FB87751}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>